--- a/results/mp/deberta/corona/confidence/168/stop-words-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="1639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1639">
   <si>
     <t>anchor score</t>
   </si>
@@ -604,847 +604,847 @@
     <t>etc</t>
   </si>
   <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>charging</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>canadian</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>asked</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>cough</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>based</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>stays</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>groceries</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>seen</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>hopefully</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>ceo</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>charging</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>technology</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>canadian</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>asked</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>ag</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>cough</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>based</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>stays</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>groceries</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>seen</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>hopefully</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>protected</t>
-  </si>
-  <si>
-    <t>technology</t>
   </si>
   <si>
     <t>wish</t>
@@ -5299,7 +5299,7 @@
         <v>176</v>
       </c>
       <c r="J1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -5478,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -5528,7 +5528,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5628,7 +5628,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5678,7 +5678,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5728,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5928,7 +5928,7 @@
         <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K14">
         <v>0.9444444444444444</v>
@@ -5978,7 +5978,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K15">
         <v>0.9230769230769231</v>
@@ -6028,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K16">
         <v>0.9230769230769231</v>
@@ -6128,7 +6128,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K18">
         <v>0.9</v>
@@ -6178,7 +6178,7 @@
         <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K19">
         <v>0.8983050847457628</v>
@@ -6228,7 +6228,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K20">
         <v>0.8888888888888888</v>
@@ -6278,7 +6278,7 @@
         <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K21">
         <v>0.875</v>
@@ -6328,7 +6328,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K22">
         <v>0.875</v>
@@ -6378,7 +6378,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K23">
         <v>0.875</v>
@@ -6478,7 +6478,7 @@
         <v>153</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K25">
         <v>0.8611111111111112</v>
@@ -6628,7 +6628,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K28">
         <v>0.84251968503937</v>
@@ -6728,7 +6728,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K30">
         <v>0.8333333333333334</v>
@@ -6778,7 +6778,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K31">
         <v>0.8333333333333334</v>
@@ -6828,7 +6828,7 @@
         <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K32">
         <v>0.8181818181818182</v>
@@ -6878,7 +6878,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K33">
         <v>0.8181818181818182</v>
@@ -6928,7 +6928,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K34">
         <v>0.8181818181818182</v>
@@ -7178,7 +7178,7 @@
         <v>4</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K39">
         <v>0.8</v>
@@ -7228,7 +7228,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K40">
         <v>0.8</v>
@@ -7328,7 +7328,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K42">
         <v>0.8</v>
@@ -7528,7 +7528,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K46">
         <v>0.7543859649122807</v>
@@ -7578,7 +7578,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K47">
         <v>0.75</v>
@@ -7628,7 +7628,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K48">
         <v>0.75</v>
@@ -7678,7 +7678,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K49">
         <v>0.75</v>
@@ -7778,7 +7778,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K51">
         <v>0.7333333333333333</v>
@@ -7878,7 +7878,7 @@
         <v>7</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K53">
         <v>0.7278481012658228</v>
@@ -7928,7 +7928,7 @@
         <v>5</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K54">
         <v>0.7272727272727273</v>
@@ -7978,7 +7978,7 @@
         <v>5</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K55">
         <v>0.7142857142857143</v>
@@ -8078,7 +8078,7 @@
         <v>5</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K57">
         <v>0.7142857142857143</v>
@@ -8128,7 +8128,7 @@
         <v>19</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K58">
         <v>0.7142857142857143</v>
@@ -8178,7 +8178,7 @@
         <v>14</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K59">
         <v>0.7142857142857143</v>
@@ -8228,7 +8228,7 @@
         <v>14</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K60">
         <v>0.7142857142857143</v>
@@ -8278,7 +8278,7 @@
         <v>6</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K61">
         <v>0.7142857142857143</v>
@@ -8328,7 +8328,7 @@
         <v>9</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K62">
         <v>0.7142857142857143</v>
@@ -8428,7 +8428,7 @@
         <v>3</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K64">
         <v>0.7</v>
@@ -8478,7 +8478,7 @@
         <v>3</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K65">
         <v>0.6808510638297872</v>
@@ -8528,7 +8528,7 @@
         <v>3</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K66">
         <v>0.6785714285714286</v>
@@ -8628,28 +8628,28 @@
         <v>3</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>196</v>
+        <v>447</v>
       </c>
       <c r="K68">
-        <v>0.6724137931034483</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L68">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="M68">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="N68">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -8678,28 +8678,28 @@
         <v>3</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>449</v>
+        <v>98</v>
       </c>
       <c r="K69">
         <v>0.6666666666666666</v>
       </c>
       <c r="L69">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M69">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -8728,28 +8728,28 @@
         <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>98</v>
+        <v>448</v>
       </c>
       <c r="K70">
         <v>0.6666666666666666</v>
       </c>
       <c r="L70">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M70">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="N70">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -8778,16 +8778,16 @@
         <v>6</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K71">
         <v>0.6666666666666666</v>
       </c>
       <c r="L71">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M71">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -8799,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -8828,16 +8828,16 @@
         <v>57</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K72">
         <v>0.6666666666666666</v>
       </c>
       <c r="L72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -8878,16 +8878,16 @@
         <v>20</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K73">
         <v>0.6666666666666666</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -8928,28 +8928,28 @@
         <v>15</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>453</v>
+        <v>54</v>
       </c>
       <c r="K74">
         <v>0.6666666666666666</v>
       </c>
       <c r="L74">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -8978,28 +8978,28 @@
         <v>19</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>54</v>
+        <v>452</v>
       </c>
       <c r="K75">
         <v>0.6666666666666666</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N75">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -9028,16 +9028,16 @@
         <v>20</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K76">
         <v>0.6666666666666666</v>
       </c>
       <c r="L76">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M76">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -9078,16 +9078,16 @@
         <v>24</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K77">
         <v>0.6666666666666666</v>
       </c>
       <c r="L77">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M77">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -9128,16 +9128,16 @@
         <v>4</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K78">
         <v>0.6666666666666666</v>
       </c>
       <c r="L78">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -9149,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -9178,16 +9178,16 @@
         <v>4</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K79">
         <v>0.6666666666666666</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -9228,16 +9228,16 @@
         <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K80">
-        <v>0.6666666666666666</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L80">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="M80">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -9278,7 +9278,7 @@
         <v>4</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K81">
         <v>0.6521739130434783</v>
@@ -9328,7 +9328,7 @@
         <v>4</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K82">
         <v>0.6408450704225352</v>
@@ -9378,7 +9378,7 @@
         <v>17</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K83">
         <v>0.6363636363636364</v>
@@ -9478,7 +9478,7 @@
         <v>18</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K85">
         <v>0.6363636363636364</v>
@@ -9528,7 +9528,7 @@
         <v>9</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K86">
         <v>0.625</v>
@@ -9578,7 +9578,7 @@
         <v>9</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K87">
         <v>0.625</v>
@@ -9628,7 +9628,7 @@
         <v>42</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K88">
         <v>0.625</v>
@@ -9678,7 +9678,7 @@
         <v>5</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K89">
         <v>0.6153846153846154</v>
@@ -9728,7 +9728,7 @@
         <v>5</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K90">
         <v>0.6153846153846154</v>
@@ -9778,7 +9778,7 @@
         <v>5</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K91">
         <v>0.6043956043956044</v>
@@ -9878,7 +9878,7 @@
         <v>15</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K93">
         <v>0.6</v>
@@ -10028,7 +10028,7 @@
         <v>5</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K96">
         <v>0.5833333333333334</v>
@@ -10078,7 +10078,7 @@
         <v>5</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K97">
         <v>0.5833333333333334</v>
@@ -10178,7 +10178,7 @@
         <v>5</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K99">
         <v>0.5714285714285714</v>
@@ -10278,7 +10278,7 @@
         <v>5</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K101">
         <v>0.5714285714285714</v>
@@ -10328,7 +10328,7 @@
         <v>5</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K102">
         <v>0.5666666666666667</v>
@@ -10378,7 +10378,7 @@
         <v>5</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K103">
         <v>0.5625</v>
@@ -10428,7 +10428,7 @@
         <v>5</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K104">
         <v>0.5555555555555556</v>
@@ -10528,28 +10528,28 @@
         <v>26</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>216</v>
+        <v>474</v>
       </c>
       <c r="K106">
-        <v>0.5548780487804879</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L106">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="M106">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="N106">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>146</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -10578,28 +10578,28 @@
         <v>16</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>475</v>
+        <v>237</v>
       </c>
       <c r="K107">
-        <v>0.5454545454545454</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L107">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="M107">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -10628,28 +10628,28 @@
         <v>16</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>239</v>
+        <v>475</v>
       </c>
       <c r="K108">
-        <v>0.5441176470588235</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L108">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="M108">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N108">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -10681,13 +10681,13 @@
         <v>476</v>
       </c>
       <c r="K109">
-        <v>0.5384615384615384</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L109">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="M109">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -10928,7 +10928,7 @@
         <v>6</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K114">
         <v>0.5113636363636364</v>
@@ -11428,7 +11428,7 @@
         <v>12</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K124">
         <v>0.5</v>
@@ -12578,7 +12578,7 @@
         <v>16</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K147">
         <v>0.4740484429065744</v>
@@ -12628,7 +12628,7 @@
         <v>8</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K148">
         <v>0.46875</v>
@@ -12828,7 +12828,7 @@
         <v>8</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K152">
         <v>0.4615384615384616</v>
@@ -12928,7 +12928,7 @@
         <v>25</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K154">
         <v>0.4566929133858268</v>
@@ -13028,7 +13028,7 @@
         <v>17</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K156">
         <v>0.4545454545454545</v>
@@ -13278,7 +13278,7 @@
         <v>9</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K161">
         <v>0.4523809523809524</v>
@@ -13528,7 +13528,7 @@
         <v>9</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K166">
         <v>0.4444444444444444</v>
@@ -14757,25 +14757,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.08433734939759036</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C191">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>541</v>
@@ -14813,16 +14813,16 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
         <v>11</v>
@@ -14863,13 +14863,13 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E193">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F193">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
@@ -14913,13 +14913,13 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E194">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F194">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
@@ -14960,22 +14960,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E195">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="F195">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>545</v>
@@ -15010,22 +15010,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>546</v>
@@ -15054,7 +15054,7 @@
     </row>
     <row r="197" spans="1:17">
       <c r="A197" s="1" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="B197">
         <v>0.08333333333333333</v>
@@ -15063,16 +15063,16 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
         <v>11</v>
@@ -15104,7 +15104,7 @@
     </row>
     <row r="198" spans="1:17">
       <c r="A198" s="1" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="B198">
         <v>0.08333333333333333</v>
@@ -15113,16 +15113,16 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>11</v>
@@ -15163,16 +15163,16 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
         <v>11</v>
@@ -15207,25 +15207,25 @@
         <v>204</v>
       </c>
       <c r="B200">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>69</v>
@@ -15257,7 +15257,7 @@
         <v>205</v>
       </c>
       <c r="B201">
-        <v>0.08108108108108109</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C201">
         <v>3</v>
@@ -15275,10 +15275,10 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K201">
         <v>0.4</v>
@@ -15307,25 +15307,25 @@
         <v>206</v>
       </c>
       <c r="B202">
-        <v>0.07894736842105263</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>549</v>
@@ -15363,13 +15363,13 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E203">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F203">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
@@ -15410,22 +15410,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E204">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F204">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>68</v>
@@ -15460,25 +15460,25 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="F205">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K205">
         <v>0.3863636363636364</v>
@@ -15513,16 +15513,16 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
         <v>12</v>
@@ -15560,22 +15560,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>153</v>
@@ -15610,22 +15610,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E208">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F208">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>552</v>
@@ -15660,22 +15660,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E209">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>553</v>
@@ -15757,25 +15757,25 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>555</v>
@@ -15807,25 +15807,25 @@
         <v>216</v>
       </c>
       <c r="B212">
-        <v>0.0759493670886076</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C212">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F212">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>556</v>
@@ -15857,25 +15857,25 @@
         <v>217</v>
       </c>
       <c r="B213">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E213">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F213">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>100</v>
@@ -15913,13 +15913,13 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
@@ -15963,13 +15963,13 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E215">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F215">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
@@ -16013,16 +16013,16 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>13</v>
@@ -16063,16 +16063,16 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
         <v>13</v>
@@ -16113,16 +16113,16 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
         <v>13</v>
@@ -16157,25 +16157,25 @@
         <v>223</v>
       </c>
       <c r="B219">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>560</v>
@@ -16207,25 +16207,25 @@
         <v>224</v>
       </c>
       <c r="B220">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>561</v>
@@ -16263,13 +16263,13 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E221">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F221">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
@@ -16310,22 +16310,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>563</v>
@@ -16410,22 +16410,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E224">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>564</v>
@@ -16457,28 +16457,28 @@
         <v>229</v>
       </c>
       <c r="B225">
-        <v>0.06666666666666667</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D225">
         <v>5</v>
       </c>
       <c r="E225">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K225">
         <v>0.3666666666666666</v>
@@ -16507,7 +16507,7 @@
         <v>230</v>
       </c>
       <c r="B226">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -16525,7 +16525,7 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>565</v>
@@ -16557,13 +16557,13 @@
         <v>231</v>
       </c>
       <c r="B227">
-        <v>0.06493506493506493</v>
+        <v>0.0625</v>
       </c>
       <c r="C227">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -16575,7 +16575,7 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>566</v>
@@ -16663,16 +16663,16 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
         <v>15</v>
@@ -16713,16 +16713,16 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
         <v>15</v>
@@ -16763,13 +16763,13 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E231">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F231">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
@@ -16813,13 +16813,13 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E232">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F232">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
@@ -16857,25 +16857,25 @@
         <v>237</v>
       </c>
       <c r="B233">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E233">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F233">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>124</v>
@@ -16907,25 +16907,25 @@
         <v>238</v>
       </c>
       <c r="B234">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>572</v>
@@ -16957,25 +16957,25 @@
         <v>239</v>
       </c>
       <c r="B235">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C235">
         <v>2</v>
       </c>
       <c r="D235">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F235">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>573</v>
@@ -17063,13 +17063,13 @@
         <v>2</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E237">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="F237">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
@@ -17113,16 +17113,16 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
         <v>16</v>
@@ -17160,22 +17160,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E239">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="F239">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>576</v>
@@ -17207,28 +17207,28 @@
         <v>244</v>
       </c>
       <c r="B240">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E240">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F240">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K240">
         <v>0.3478260869565217</v>
@@ -17257,25 +17257,25 @@
         <v>245</v>
       </c>
       <c r="B241">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E241">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F241">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>577</v>
@@ -17313,13 +17313,13 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E242">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F242">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
@@ -17363,13 +17363,13 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E243">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F243">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
@@ -17413,16 +17413,16 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
         <v>17</v>
@@ -17457,28 +17457,28 @@
         <v>249</v>
       </c>
       <c r="B245">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E245">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F245">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K245">
         <v>0.3414634146341464</v>
@@ -17507,25 +17507,25 @@
         <v>250</v>
       </c>
       <c r="B246">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>581</v>
@@ -17563,16 +17563,16 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E247">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247">
         <v>18</v>
@@ -17607,25 +17607,25 @@
         <v>252</v>
       </c>
       <c r="B248">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248">
         <v>2</v>
       </c>
       <c r="E248">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H248">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>583</v>
@@ -17657,25 +17657,25 @@
         <v>253</v>
       </c>
       <c r="B249">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>584</v>
@@ -17710,22 +17710,22 @@
         <v>0.05</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>585</v>
@@ -17757,25 +17757,25 @@
         <v>255</v>
       </c>
       <c r="B251">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E251">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F251">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>586</v>
@@ -17807,25 +17807,25 @@
         <v>256</v>
       </c>
       <c r="B252">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E252">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F252">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>587</v>
@@ -17863,13 +17863,13 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E253">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F253">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
@@ -17913,13 +17913,13 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E254">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F254">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
@@ -17963,13 +17963,13 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="E255">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="F255">
-        <v>0.11</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
@@ -18013,13 +18013,13 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E256">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F256">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
@@ -18063,13 +18063,13 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="E257">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F257">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
@@ -18113,13 +18113,13 @@
         <v>1</v>
       </c>
       <c r="D258">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E258">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F258">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
@@ -18163,13 +18163,13 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E259">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F259">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
@@ -18207,25 +18207,25 @@
         <v>264</v>
       </c>
       <c r="B260">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E260">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F260">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>83</v>
@@ -18257,7 +18257,7 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -18275,7 +18275,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>594</v>
@@ -18313,13 +18313,13 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E262">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F262">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
@@ -18357,25 +18357,25 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E263">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F263">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>596</v>
@@ -18407,25 +18407,25 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E264">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F264">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>597</v>
@@ -18457,25 +18457,25 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E265">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F265">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>598</v>
@@ -18513,16 +18513,16 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E266">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F266">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H266">
         <v>22</v>
@@ -18557,25 +18557,25 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E267">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F267">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>600</v>
@@ -18607,25 +18607,25 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F268">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>601</v>
@@ -18663,13 +18663,13 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E269">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F269">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
@@ -18707,25 +18707,25 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
+        <v>3</v>
+      </c>
+      <c r="E270">
+        <v>0.67</v>
+      </c>
+      <c r="F270">
+        <v>0.33</v>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270">
         <v>24</v>
-      </c>
-      <c r="E270">
-        <v>0.96</v>
-      </c>
-      <c r="F270">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270">
-        <v>23</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>602</v>
@@ -18757,25 +18757,25 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E271">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F271">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>603</v>
@@ -18857,25 +18857,25 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E273">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F273">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>605</v>
@@ -18907,25 +18907,25 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E274">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F274">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>179</v>
@@ -18963,13 +18963,13 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E275">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F275">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
@@ -19010,22 +19010,22 @@
         <v>0.03846153846153846</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E276">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F276">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>607</v>
@@ -19063,13 +19063,13 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E277">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F277">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
@@ -19113,16 +19113,16 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E278">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F278">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H278">
         <v>25</v>
@@ -19163,13 +19163,13 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E279">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F279">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
@@ -19207,25 +19207,25 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>0.03846153846153846</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>611</v>
@@ -19257,25 +19257,25 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>0.03846153846153846</v>
+        <v>0.0375</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D281">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E281">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F281">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H281">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>612</v>
@@ -19307,25 +19307,25 @@
         <v>286</v>
       </c>
       <c r="B282">
-        <v>0.0379746835443038</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C282">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="E282">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F282">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>46</v>
@@ -19357,25 +19357,25 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>0.0375</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C283">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F283">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>613</v>
@@ -19407,25 +19407,25 @@
         <v>288</v>
       </c>
       <c r="B284">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E284">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F284">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>121</v>
@@ -19457,25 +19457,25 @@
         <v>289</v>
       </c>
       <c r="B285">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E285">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F285">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H285">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>614</v>
@@ -19513,13 +19513,13 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E286">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F286">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         <v>291</v>
       </c>
       <c r="B287">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -19575,7 +19575,7 @@
         <v>0</v>
       </c>
       <c r="H287">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>615</v>
@@ -19607,25 +19607,25 @@
         <v>292</v>
       </c>
       <c r="B288">
-        <v>0.03571428571428571</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D288">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E288">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F288">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H288">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>616</v>
@@ -19657,25 +19657,25 @@
         <v>293</v>
       </c>
       <c r="B289">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F289">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>617</v>
@@ -19707,25 +19707,25 @@
         <v>294</v>
       </c>
       <c r="B290">
-        <v>0.03355704697986577</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C290">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D290">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F290">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H290">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>618</v>
@@ -19763,13 +19763,13 @@
         <v>1</v>
       </c>
       <c r="D291">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E291">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F291">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
@@ -19813,13 +19813,13 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E292">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F292">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
@@ -19857,13 +19857,13 @@
         <v>297</v>
       </c>
       <c r="B293">
-        <v>0.03225806451612903</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D293">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E293">
         <v>0.89</v>
@@ -19875,7 +19875,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>620</v>
@@ -19907,7 +19907,7 @@
         <v>298</v>
       </c>
       <c r="B294">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -19925,7 +19925,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>621</v>
@@ -19957,28 +19957,28 @@
         <v>299</v>
       </c>
       <c r="B295">
-        <v>0.03174603174603174</v>
+        <v>0.03125</v>
       </c>
       <c r="C295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E295">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F295">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K295">
         <v>0.3194444444444444</v>
@@ -20007,25 +20007,25 @@
         <v>300</v>
       </c>
       <c r="B296">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E296">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F296">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>622</v>
@@ -20057,25 +20057,25 @@
         <v>301</v>
       </c>
       <c r="B297">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E297">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F297">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>623</v>
@@ -20107,28 +20107,28 @@
         <v>302</v>
       </c>
       <c r="B298">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E298">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F298">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H298">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K298">
         <v>0.3125</v>
@@ -20157,25 +20157,25 @@
         <v>303</v>
       </c>
       <c r="B299">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
       <c r="D299">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E299">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F299">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>624</v>
@@ -20207,25 +20207,25 @@
         <v>304</v>
       </c>
       <c r="B300">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F300">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H300">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>625</v>
@@ -20257,25 +20257,25 @@
         <v>305</v>
       </c>
       <c r="B301">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
       <c r="D301">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E301">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F301">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H301">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>626</v>
@@ -20307,25 +20307,25 @@
         <v>306</v>
       </c>
       <c r="B302">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E302">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F302">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>627</v>
@@ -20357,25 +20357,25 @@
         <v>307</v>
       </c>
       <c r="B303">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F303">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H303">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>628</v>
@@ -20407,25 +20407,25 @@
         <v>308</v>
       </c>
       <c r="B304">
-        <v>0.02777777777777778</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D304">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E304">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="F304">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>629</v>
@@ -20457,25 +20457,25 @@
         <v>309</v>
       </c>
       <c r="B305">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E305">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F305">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H305">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>139</v>
@@ -20507,25 +20507,25 @@
         <v>310</v>
       </c>
       <c r="B306">
-        <v>0.02597402597402598</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D306">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E306">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F306">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H306">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>630</v>
@@ -20563,16 +20563,16 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E307">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F307">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H307">
         <v>38</v>
@@ -20613,16 +20613,16 @@
         <v>1</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E308">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F308">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H308">
         <v>38</v>
@@ -20663,13 +20663,13 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E309">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F309">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
@@ -20713,13 +20713,13 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E310">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F310">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
@@ -20763,13 +20763,13 @@
         <v>1</v>
       </c>
       <c r="D311">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E311">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F311">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
@@ -20813,13 +20813,13 @@
         <v>1</v>
       </c>
       <c r="D312">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E312">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F312">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
@@ -20857,25 +20857,25 @@
         <v>317</v>
       </c>
       <c r="B313">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E313">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F313">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H313">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>637</v>
@@ -20907,7 +20907,7 @@
         <v>318</v>
       </c>
       <c r="B314">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -20925,10 +20925,10 @@
         <v>1</v>
       </c>
       <c r="H314">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J314" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K314">
         <v>0.2962962962962963</v>
@@ -20957,25 +20957,25 @@
         <v>319</v>
       </c>
       <c r="B315">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F315">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H315">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>638</v>
@@ -21007,25 +21007,25 @@
         <v>320</v>
       </c>
       <c r="B316">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
       <c r="D316">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E316">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F316">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G316" t="b">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>639</v>
@@ -21057,28 +21057,28 @@
         <v>321</v>
       </c>
       <c r="B317">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
       <c r="D317">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E317">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F317">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G317" t="b">
         <v>1</v>
       </c>
       <c r="H317">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J317" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K317">
         <v>0.2941176470588235</v>
@@ -21107,25 +21107,25 @@
         <v>322</v>
       </c>
       <c r="B318">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
       <c r="D318">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E318">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F318">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H318">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>640</v>
@@ -21157,25 +21157,25 @@
         <v>323</v>
       </c>
       <c r="B319">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D319">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E319">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
       <c r="F319">
-        <v>0.02000000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="G319" t="b">
         <v>1</v>
       </c>
       <c r="H319">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>180</v>
@@ -21210,22 +21210,22 @@
         <v>0.02222222222222222</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D320">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E320">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F320">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H320">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>641</v>
@@ -21257,25 +21257,25 @@
         <v>325</v>
       </c>
       <c r="B321">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D321">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E321">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="F321">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G321" t="b">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>79</v>
@@ -21307,25 +21307,25 @@
         <v>326</v>
       </c>
       <c r="B322">
-        <v>0.02222222222222222</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C322">
         <v>2</v>
       </c>
       <c r="D322">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E322">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="F322">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="G322" t="b">
         <v>1</v>
       </c>
       <c r="H322">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>106</v>
@@ -21357,25 +21357,25 @@
         <v>327</v>
       </c>
       <c r="B323">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C323">
         <v>1</v>
       </c>
       <c r="D323">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E323">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F323">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G323" t="b">
         <v>1</v>
       </c>
       <c r="H323">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>642</v>
@@ -21407,25 +21407,25 @@
         <v>328</v>
       </c>
       <c r="B324">
-        <v>0.02150537634408602</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C324">
         <v>2</v>
       </c>
       <c r="D324">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E324">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F324">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G324" t="b">
         <v>1</v>
       </c>
       <c r="H324">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>643</v>
@@ -21463,13 +21463,13 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E325">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F325">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G325" t="b">
         <v>1</v>
@@ -21507,25 +21507,25 @@
         <v>330</v>
       </c>
       <c r="B326">
-        <v>0.02127659574468085</v>
+        <v>0.02</v>
       </c>
       <c r="C326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D326">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E326">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F326">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G326" t="b">
         <v>1</v>
       </c>
       <c r="H326">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>644</v>
@@ -21557,25 +21557,25 @@
         <v>331</v>
       </c>
       <c r="B327">
-        <v>0.02127659574468085</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C327">
         <v>1</v>
       </c>
       <c r="D327">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E327">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F327">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G327" t="b">
         <v>1</v>
       </c>
       <c r="H327">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J327" s="1" t="s">
         <v>645</v>
@@ -21607,25 +21607,25 @@
         <v>332</v>
       </c>
       <c r="B328">
-        <v>0.02</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D328">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E328">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F328">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G328" t="b">
         <v>1</v>
       </c>
       <c r="H328">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="J328" s="1" t="s">
         <v>177</v>
@@ -21657,25 +21657,25 @@
         <v>333</v>
       </c>
       <c r="B329">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C329">
         <v>1</v>
       </c>
       <c r="D329">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E329">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F329">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G329" t="b">
         <v>1</v>
       </c>
       <c r="H329">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J329" s="1" t="s">
         <v>646</v>
@@ -21710,22 +21710,22 @@
         <v>0.01923076923076923</v>
       </c>
       <c r="C330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D330">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E330">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F330">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G330" t="b">
         <v>1</v>
       </c>
       <c r="H330">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="J330" s="1" t="s">
         <v>647</v>
@@ -21763,13 +21763,13 @@
         <v>1</v>
       </c>
       <c r="D331">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E331">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F331">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G331" t="b">
         <v>1</v>
@@ -21813,13 +21813,13 @@
         <v>1</v>
       </c>
       <c r="D332">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E332">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F332">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G332" t="b">
         <v>1</v>
@@ -21857,25 +21857,25 @@
         <v>337</v>
       </c>
       <c r="B333">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D333">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E333">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F333">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G333" t="b">
         <v>1</v>
       </c>
       <c r="H333">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="J333" s="1" t="s">
         <v>650</v>
@@ -21907,25 +21907,25 @@
         <v>338</v>
       </c>
       <c r="B334">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D334">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E334">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F334">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G334" t="b">
         <v>1</v>
       </c>
       <c r="H334">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="J334" s="1" t="s">
         <v>101</v>
@@ -21957,25 +21957,25 @@
         <v>339</v>
       </c>
       <c r="B335">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C335">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D335">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E335">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F335">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G335" t="b">
         <v>1</v>
       </c>
       <c r="H335">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="J335" s="1" t="s">
         <v>651</v>
@@ -22007,25 +22007,25 @@
         <v>340</v>
       </c>
       <c r="B336">
-        <v>0.01851851851851852</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="C336">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D336">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E336">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F336">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G336" t="b">
         <v>1</v>
       </c>
       <c r="H336">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="J336" s="1" t="s">
         <v>652</v>
@@ -22057,25 +22057,25 @@
         <v>341</v>
       </c>
       <c r="B337">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C337">
         <v>1</v>
       </c>
       <c r="D337">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E337">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F337">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G337" t="b">
         <v>1</v>
       </c>
       <c r="H337">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J337" s="1" t="s">
         <v>653</v>
@@ -22107,25 +22107,25 @@
         <v>342</v>
       </c>
       <c r="B338">
-        <v>0.01840490797546012</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C338">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D338">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E338">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F338">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G338" t="b">
         <v>1</v>
       </c>
       <c r="H338">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="J338" s="1" t="s">
         <v>654</v>
@@ -22213,22 +22213,22 @@
         <v>1</v>
       </c>
       <c r="D340">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E340">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F340">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H340">
         <v>54</v>
       </c>
       <c r="J340" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K340">
         <v>0.2857142857142857</v>
@@ -22257,25 +22257,25 @@
         <v>345</v>
       </c>
       <c r="B341">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C341">
         <v>1</v>
       </c>
       <c r="D341">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E341">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F341">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G341" t="b">
         <v>1</v>
       </c>
       <c r="H341">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J341" s="1" t="s">
         <v>656</v>
@@ -22307,7 +22307,7 @@
         <v>346</v>
       </c>
       <c r="B342">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -22325,7 +22325,7 @@
         <v>0</v>
       </c>
       <c r="H342">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J342" s="1" t="s">
         <v>657</v>
@@ -22357,25 +22357,25 @@
         <v>347</v>
       </c>
       <c r="B343">
-        <v>0.01724137931034483</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="C343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D343">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E343">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F343">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G343" t="b">
         <v>1</v>
       </c>
       <c r="H343">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J343" s="1" t="s">
         <v>658</v>
@@ -22407,25 +22407,25 @@
         <v>348</v>
       </c>
       <c r="B344">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C344">
         <v>1</v>
       </c>
       <c r="D344">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E344">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F344">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H344">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J344" s="1" t="s">
         <v>659</v>
@@ -22457,25 +22457,25 @@
         <v>349</v>
       </c>
       <c r="B345">
-        <v>0.0170940170940171</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C345">
         <v>2</v>
       </c>
       <c r="D345">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E345">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F345">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G345" t="b">
         <v>1</v>
       </c>
       <c r="H345">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J345" s="1" t="s">
         <v>660</v>
@@ -22507,25 +22507,25 @@
         <v>350</v>
       </c>
       <c r="B346">
-        <v>0.01694915254237288</v>
+        <v>0.01602564102564102</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D346">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E346">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F346">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G346" t="b">
         <v>1</v>
       </c>
       <c r="H346">
-        <v>58</v>
+        <v>307</v>
       </c>
       <c r="J346" s="1" t="s">
         <v>661</v>
@@ -22557,25 +22557,25 @@
         <v>351</v>
       </c>
       <c r="B347">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D347">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E347">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F347">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G347" t="b">
         <v>1</v>
       </c>
       <c r="H347">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="J347" s="1" t="s">
         <v>662</v>
@@ -22607,28 +22607,28 @@
         <v>352</v>
       </c>
       <c r="B348">
-        <v>0.01602564102564102</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="C348">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D348">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E348">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F348">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G348" t="b">
         <v>1</v>
       </c>
       <c r="H348">
-        <v>307</v>
+        <v>125</v>
       </c>
       <c r="J348" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K348">
         <v>0.2816901408450704</v>
@@ -22657,25 +22657,25 @@
         <v>353</v>
       </c>
       <c r="B349">
-        <v>0.01587301587301587</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C349">
         <v>1</v>
       </c>
       <c r="D349">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E349">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F349">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G349" t="b">
         <v>1</v>
       </c>
       <c r="H349">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J349" s="1" t="s">
         <v>663</v>
@@ -22707,25 +22707,25 @@
         <v>354</v>
       </c>
       <c r="B350">
-        <v>0.01574803149606299</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D350">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E350">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F350">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G350" t="b">
         <v>1</v>
       </c>
       <c r="H350">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="J350" s="1" t="s">
         <v>664</v>
@@ -22757,25 +22757,25 @@
         <v>355</v>
       </c>
       <c r="B351">
-        <v>0.01515151515151515</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C351">
         <v>1</v>
       </c>
       <c r="D351">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E351">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F351">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G351" t="b">
         <v>1</v>
       </c>
       <c r="H351">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J351" s="1" t="s">
         <v>665</v>
@@ -22807,25 +22807,25 @@
         <v>356</v>
       </c>
       <c r="B352">
-        <v>0.01492537313432836</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D352">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E352">
-        <v>0.97</v>
+        <v>0.43</v>
       </c>
       <c r="F352">
-        <v>0.03000000000000003</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G352" t="b">
         <v>1</v>
       </c>
       <c r="H352">
-        <v>66</v>
+        <v>286</v>
       </c>
       <c r="J352" s="1" t="s">
         <v>666</v>
@@ -22857,28 +22857,28 @@
         <v>357</v>
       </c>
       <c r="B353">
-        <v>0.01428571428571429</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C353">
         <v>1</v>
       </c>
       <c r="D353">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E353">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F353">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G353" t="b">
         <v>1</v>
       </c>
       <c r="H353">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J353" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K353">
         <v>0.2777777777777778</v>
@@ -22907,25 +22907,25 @@
         <v>358</v>
       </c>
       <c r="B354">
-        <v>0.01379310344827586</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C354">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D354">
         <v>7</v>
       </c>
       <c r="E354">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="F354">
-        <v>0.5700000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G354" t="b">
         <v>1</v>
       </c>
       <c r="H354">
-        <v>286</v>
+        <v>75</v>
       </c>
       <c r="J354" s="1" t="s">
         <v>667</v>
@@ -22957,25 +22957,25 @@
         <v>359</v>
       </c>
       <c r="B355">
-        <v>0.0136986301369863</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C355">
         <v>1</v>
       </c>
       <c r="D355">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E355">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F355">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G355" t="b">
         <v>1</v>
       </c>
       <c r="H355">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J355" s="1" t="s">
         <v>668</v>
@@ -23007,25 +23007,25 @@
         <v>360</v>
       </c>
       <c r="B356">
-        <v>0.0131578947368421</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C356">
         <v>1</v>
       </c>
       <c r="D356">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E356">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F356">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G356" t="b">
         <v>1</v>
       </c>
       <c r="H356">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J356" s="1" t="s">
         <v>669</v>
@@ -23057,25 +23057,25 @@
         <v>361</v>
       </c>
       <c r="B357">
-        <v>0.0131578947368421</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C357">
         <v>1</v>
       </c>
       <c r="D357">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E357">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F357">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G357" t="b">
         <v>1</v>
       </c>
       <c r="H357">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J357" s="1" t="s">
         <v>150</v>
@@ -23107,25 +23107,25 @@
         <v>362</v>
       </c>
       <c r="B358">
-        <v>0.01298701298701299</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C358">
         <v>1</v>
       </c>
       <c r="D358">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E358">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F358">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G358" t="b">
         <v>1</v>
       </c>
       <c r="H358">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J358" s="1" t="s">
         <v>670</v>
@@ -23157,25 +23157,25 @@
         <v>363</v>
       </c>
       <c r="B359">
-        <v>0.01265822784810127</v>
+        <v>0.01253918495297806</v>
       </c>
       <c r="C359">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D359">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="E359">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F359">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G359" t="b">
         <v>1</v>
       </c>
       <c r="H359">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="J359" s="1" t="s">
         <v>671</v>
@@ -23207,25 +23207,25 @@
         <v>364</v>
       </c>
       <c r="B360">
-        <v>0.01265822784810127</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D360">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E360">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F360">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G360" t="b">
         <v>1</v>
       </c>
       <c r="H360">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="J360" s="1" t="s">
         <v>672</v>
@@ -23257,28 +23257,28 @@
         <v>365</v>
       </c>
       <c r="B361">
-        <v>0.01253918495297806</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C361">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D361">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="E361">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F361">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G361" t="b">
         <v>1</v>
       </c>
       <c r="H361">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K361">
         <v>0.2692307692307692</v>
@@ -23307,25 +23307,25 @@
         <v>366</v>
       </c>
       <c r="B362">
-        <v>0.01219512195121951</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D362">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E362">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F362">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G362" t="b">
         <v>1</v>
       </c>
       <c r="H362">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="J362" s="1" t="s">
         <v>673</v>
@@ -23357,7 +23357,7 @@
         <v>367</v>
       </c>
       <c r="B363">
-        <v>0.01204819277108434</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -23375,10 +23375,10 @@
         <v>1</v>
       </c>
       <c r="H363">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J363" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K363">
         <v>0.2682926829268293</v>
@@ -23407,25 +23407,25 @@
         <v>368</v>
       </c>
       <c r="B364">
-        <v>0.0119047619047619</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C364">
         <v>1</v>
       </c>
       <c r="D364">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E364">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F364">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G364" t="b">
         <v>1</v>
       </c>
       <c r="H364">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J364" s="1" t="s">
         <v>674</v>
@@ -23457,25 +23457,25 @@
         <v>369</v>
       </c>
       <c r="B365">
-        <v>0.01162790697674419</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C365">
         <v>1</v>
       </c>
       <c r="D365">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E365">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F365">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G365" t="b">
         <v>1</v>
       </c>
       <c r="H365">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J365" s="1" t="s">
         <v>675</v>
@@ -23507,7 +23507,7 @@
         <v>370</v>
       </c>
       <c r="B366">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -23525,7 +23525,7 @@
         <v>1</v>
       </c>
       <c r="H366">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J366" s="1" t="s">
         <v>676</v>
@@ -23557,25 +23557,25 @@
         <v>371</v>
       </c>
       <c r="B367">
-        <v>0.01123595505617977</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="C367">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D367">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="E367">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F367">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G367" t="b">
         <v>1</v>
       </c>
       <c r="H367">
-        <v>88</v>
+        <v>573</v>
       </c>
       <c r="J367" s="1" t="s">
         <v>677</v>
@@ -23607,25 +23607,25 @@
         <v>372</v>
       </c>
       <c r="B368">
-        <v>0.01111111111111111</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C368">
         <v>1</v>
       </c>
       <c r="D368">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E368">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F368">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G368" t="b">
         <v>1</v>
       </c>
       <c r="H368">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J368" s="1" t="s">
         <v>678</v>
@@ -23657,25 +23657,25 @@
         <v>373</v>
       </c>
       <c r="B369">
-        <v>0.01036269430051814</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C369">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D369">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="E369">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F369">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G369" t="b">
         <v>1</v>
       </c>
       <c r="H369">
-        <v>573</v>
+        <v>98</v>
       </c>
       <c r="J369" s="1" t="s">
         <v>679</v>
@@ -23707,28 +23707,28 @@
         <v>374</v>
       </c>
       <c r="B370">
-        <v>0.01020408163265306</v>
+        <v>0.009978991596638655</v>
       </c>
       <c r="C370">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D370">
-        <v>4</v>
+        <v>258</v>
       </c>
       <c r="E370">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F370">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G370" t="b">
         <v>1</v>
       </c>
       <c r="H370">
-        <v>97</v>
+        <v>1885</v>
       </c>
       <c r="J370" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K370">
         <v>0.2608695652173913</v>
@@ -23757,25 +23757,25 @@
         <v>375</v>
       </c>
       <c r="B371">
-        <v>0.0101010101010101</v>
+        <v>0.009596928982725527</v>
       </c>
       <c r="C371">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D371">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E371">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F371">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G371" t="b">
         <v>1</v>
       </c>
       <c r="H371">
-        <v>98</v>
+        <v>516</v>
       </c>
       <c r="J371" s="1" t="s">
         <v>680</v>
@@ -23807,25 +23807,25 @@
         <v>376</v>
       </c>
       <c r="B372">
-        <v>0.009978991596638655</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="C372">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D372">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="E372">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F372">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G372" t="b">
         <v>1</v>
       </c>
       <c r="H372">
-        <v>1885</v>
+        <v>207</v>
       </c>
       <c r="J372" s="1" t="s">
         <v>681</v>
@@ -23857,25 +23857,25 @@
         <v>377</v>
       </c>
       <c r="B373">
-        <v>0.009596928982725527</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C373">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D373">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E373">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F373">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G373" t="b">
         <v>1</v>
       </c>
       <c r="H373">
-        <v>516</v>
+        <v>104</v>
       </c>
       <c r="J373" s="1" t="s">
         <v>682</v>
@@ -23907,25 +23907,25 @@
         <v>378</v>
       </c>
       <c r="B374">
-        <v>0.009569377990430622</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C374">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D374">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="E374">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F374">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G374" t="b">
         <v>1</v>
       </c>
       <c r="H374">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="J374" s="1" t="s">
         <v>683</v>
@@ -23957,25 +23957,25 @@
         <v>379</v>
       </c>
       <c r="B375">
-        <v>0.009523809523809525</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="C375">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D375">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E375">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="F375">
-        <v>0.06999999999999995</v>
+        <v>0.18</v>
       </c>
       <c r="G375" t="b">
         <v>1</v>
       </c>
       <c r="H375">
-        <v>104</v>
+        <v>924</v>
       </c>
       <c r="J375" s="1" t="s">
         <v>684</v>
@@ -24007,25 +24007,25 @@
         <v>380</v>
       </c>
       <c r="B376">
-        <v>0.009174311926605505</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C376">
         <v>1</v>
       </c>
       <c r="D376">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E376">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F376">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G376" t="b">
         <v>1</v>
       </c>
       <c r="H376">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J376" s="1" t="s">
         <v>685</v>
@@ -24057,25 +24057,25 @@
         <v>381</v>
       </c>
       <c r="B377">
-        <v>0.008583690987124463</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C377">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D377">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E377">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="F377">
-        <v>0.18</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G377" t="b">
         <v>1</v>
       </c>
       <c r="H377">
-        <v>924</v>
+        <v>125</v>
       </c>
       <c r="J377" s="1" t="s">
         <v>686</v>
@@ -24107,25 +24107,25 @@
         <v>382</v>
       </c>
       <c r="B378">
-        <v>0.008474576271186441</v>
+        <v>0.0078125</v>
       </c>
       <c r="C378">
         <v>1</v>
       </c>
       <c r="D378">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E378">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F378">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G378" t="b">
         <v>1</v>
       </c>
       <c r="H378">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J378" s="1" t="s">
         <v>687</v>
@@ -24157,25 +24157,25 @@
         <v>383</v>
       </c>
       <c r="B379">
-        <v>0.007936507936507936</v>
+        <v>0.007772020725388601</v>
       </c>
       <c r="C379">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D379">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="E379">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F379">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G379" t="b">
         <v>1</v>
       </c>
       <c r="H379">
-        <v>125</v>
+        <v>766</v>
       </c>
       <c r="J379" s="1" t="s">
         <v>688</v>
@@ -24207,25 +24207,25 @@
         <v>384</v>
       </c>
       <c r="B380">
-        <v>0.0078125</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="C380">
         <v>1</v>
       </c>
       <c r="D380">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E380">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F380">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G380" t="b">
         <v>1</v>
       </c>
       <c r="H380">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J380" s="1" t="s">
         <v>689</v>
@@ -24257,25 +24257,25 @@
         <v>385</v>
       </c>
       <c r="B381">
-        <v>0.007772020725388601</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="C381">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D381">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="E381">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F381">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G381" t="b">
         <v>1</v>
       </c>
       <c r="H381">
-        <v>766</v>
+        <v>282</v>
       </c>
       <c r="J381" s="1" t="s">
         <v>690</v>
@@ -24307,25 +24307,25 @@
         <v>386</v>
       </c>
       <c r="B382">
-        <v>0.007692307692307693</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="C382">
         <v>1</v>
       </c>
       <c r="D382">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E382">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F382">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G382" t="b">
         <v>1</v>
       </c>
       <c r="H382">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="J382" s="1" t="s">
         <v>691</v>
@@ -24357,25 +24357,25 @@
         <v>387</v>
       </c>
       <c r="B383">
-        <v>0.007042253521126761</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="C383">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D383">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E383">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F383">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G383" t="b">
         <v>1</v>
       </c>
       <c r="H383">
-        <v>282</v>
+        <v>147</v>
       </c>
       <c r="J383" s="1" t="s">
         <v>692</v>
@@ -24407,25 +24407,25 @@
         <v>388</v>
       </c>
       <c r="B384">
-        <v>0.00684931506849315</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C384">
         <v>1</v>
       </c>
       <c r="D384">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E384">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F384">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G384" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H384">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J384" s="1" t="s">
         <v>693</v>
@@ -24457,25 +24457,25 @@
         <v>389</v>
       </c>
       <c r="B385">
-        <v>0.006756756756756757</v>
+        <v>0.005865102639296188</v>
       </c>
       <c r="C385">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D385">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E385">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F385">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G385" t="b">
         <v>1</v>
       </c>
       <c r="H385">
-        <v>147</v>
+        <v>339</v>
       </c>
       <c r="J385" s="1" t="s">
         <v>694</v>
@@ -24507,25 +24507,25 @@
         <v>390</v>
       </c>
       <c r="B386">
-        <v>0.006024096385542169</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="C386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D386">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E386">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F386">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H386">
-        <v>165</v>
+        <v>344</v>
       </c>
       <c r="J386" s="1" t="s">
         <v>695</v>
@@ -24557,25 +24557,25 @@
         <v>391</v>
       </c>
       <c r="B387">
-        <v>0.005865102639296188</v>
+        <v>0.005597014925373134</v>
       </c>
       <c r="C387">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D387">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="E387">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F387">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G387" t="b">
         <v>1</v>
       </c>
       <c r="H387">
-        <v>339</v>
+        <v>1066</v>
       </c>
       <c r="J387" s="1" t="s">
         <v>696</v>
@@ -24607,25 +24607,25 @@
         <v>392</v>
       </c>
       <c r="B388">
-        <v>0.005780346820809248</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="C388">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D388">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="E388">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F388">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G388" t="b">
         <v>1</v>
       </c>
       <c r="H388">
-        <v>344</v>
+        <v>186</v>
       </c>
       <c r="J388" s="1" t="s">
         <v>697</v>
@@ -24657,25 +24657,25 @@
         <v>393</v>
       </c>
       <c r="B389">
-        <v>0.005597014925373134</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="C389">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D389">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="E389">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F389">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G389" t="b">
         <v>1</v>
       </c>
       <c r="H389">
-        <v>1066</v>
+        <v>764</v>
       </c>
       <c r="J389" s="1" t="s">
         <v>698</v>
@@ -24707,25 +24707,25 @@
         <v>394</v>
       </c>
       <c r="B390">
-        <v>0.0053475935828877</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="C390">
         <v>1</v>
       </c>
       <c r="D390">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E390">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F390">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G390" t="b">
         <v>1</v>
       </c>
       <c r="H390">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="J390" s="1" t="s">
         <v>699</v>
@@ -24757,25 +24757,25 @@
         <v>395</v>
       </c>
       <c r="B391">
-        <v>0.005208333333333333</v>
+        <v>0.005089058524173028</v>
       </c>
       <c r="C391">
         <v>4</v>
       </c>
       <c r="D391">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="E391">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F391">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G391" t="b">
         <v>1</v>
       </c>
       <c r="H391">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="J391" s="1" t="s">
         <v>700</v>
@@ -24807,25 +24807,25 @@
         <v>396</v>
       </c>
       <c r="B392">
-        <v>0.005128205128205128</v>
+        <v>0.004754937820043892</v>
       </c>
       <c r="C392">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D392">
-        <v>43</v>
+        <v>386</v>
       </c>
       <c r="E392">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F392">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G392" t="b">
         <v>1</v>
       </c>
       <c r="H392">
-        <v>194</v>
+        <v>2721</v>
       </c>
       <c r="J392" s="1" t="s">
         <v>701</v>
@@ -24857,25 +24857,25 @@
         <v>397</v>
       </c>
       <c r="B393">
-        <v>0.005089058524173028</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C393">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D393">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="E393">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F393">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G393" t="b">
         <v>1</v>
       </c>
       <c r="H393">
-        <v>782</v>
+        <v>239</v>
       </c>
       <c r="J393" s="1" t="s">
         <v>702</v>
@@ -24907,25 +24907,25 @@
         <v>398</v>
       </c>
       <c r="B394">
-        <v>0.004754937820043892</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C394">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D394">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="E394">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F394">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H394">
-        <v>2721</v>
+        <v>251</v>
       </c>
       <c r="J394" s="1" t="s">
         <v>703</v>
@@ -24957,25 +24957,25 @@
         <v>399</v>
       </c>
       <c r="B395">
-        <v>0.004166666666666667</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="C395">
         <v>1</v>
       </c>
       <c r="D395">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E395">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F395">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G395" t="b">
         <v>1</v>
       </c>
       <c r="H395">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="J395" s="1" t="s">
         <v>704</v>
@@ -25007,25 +25007,25 @@
         <v>400</v>
       </c>
       <c r="B396">
-        <v>0.003968253968253968</v>
+        <v>0.003508771929824561</v>
       </c>
       <c r="C396">
         <v>1</v>
       </c>
       <c r="D396">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F396">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H396">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="J396" s="1" t="s">
         <v>705</v>
@@ -25057,25 +25057,25 @@
         <v>401</v>
       </c>
       <c r="B397">
-        <v>0.003816793893129771</v>
+        <v>0.003373819163292848</v>
       </c>
       <c r="C397">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D397">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="E397">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F397">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G397" t="b">
         <v>1</v>
       </c>
       <c r="H397">
-        <v>261</v>
+        <v>2954</v>
       </c>
       <c r="J397" s="1" t="s">
         <v>706</v>
@@ -25107,25 +25107,25 @@
         <v>402</v>
       </c>
       <c r="B398">
-        <v>0.003508771929824561</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="C398">
         <v>1</v>
       </c>
       <c r="D398">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E398">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F398">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H398">
-        <v>284</v>
+        <v>372</v>
       </c>
       <c r="J398" s="1" t="s">
         <v>707</v>
@@ -25157,25 +25157,25 @@
         <v>403</v>
       </c>
       <c r="B399">
-        <v>0.003373819163292848</v>
+        <v>0.002320185614849188</v>
       </c>
       <c r="C399">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D399">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="E399">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F399">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G399" t="b">
         <v>1</v>
       </c>
       <c r="H399">
-        <v>2954</v>
+        <v>430</v>
       </c>
       <c r="J399" s="1" t="s">
         <v>708</v>
@@ -25207,25 +25207,25 @@
         <v>404</v>
       </c>
       <c r="B400">
-        <v>0.002680965147453083</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="C400">
         <v>1</v>
       </c>
       <c r="D400">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E400">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F400">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H400">
-        <v>372</v>
+        <v>449</v>
       </c>
       <c r="J400" s="1" t="s">
         <v>709</v>
@@ -25257,13 +25257,13 @@
         <v>405</v>
       </c>
       <c r="B401">
-        <v>0.002320185614849188</v>
+        <v>0.00199203187250996</v>
       </c>
       <c r="C401">
         <v>1</v>
       </c>
       <c r="D401">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E401">
         <v>0.98</v>
@@ -25275,10 +25275,10 @@
         <v>1</v>
       </c>
       <c r="H401">
-        <v>430</v>
+        <v>501</v>
       </c>
       <c r="J401" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K401">
         <v>0.25</v>
@@ -25303,30 +25303,6 @@
       </c>
     </row>
     <row r="402" spans="1:17">
-      <c r="A402" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B402">
-        <v>0.002222222222222222</v>
-      </c>
-      <c r="C402">
-        <v>1</v>
-      </c>
-      <c r="D402">
-        <v>15</v>
-      </c>
-      <c r="E402">
-        <v>0.93</v>
-      </c>
-      <c r="F402">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G402" t="b">
-        <v>1</v>
-      </c>
-      <c r="H402">
-        <v>449</v>
-      </c>
       <c r="J402" s="1" t="s">
         <v>710</v>
       </c>
@@ -25353,30 +25329,6 @@
       </c>
     </row>
     <row r="403" spans="1:17">
-      <c r="A403" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B403">
-        <v>0.00199203187250996</v>
-      </c>
-      <c r="C403">
-        <v>1</v>
-      </c>
-      <c r="D403">
-        <v>66</v>
-      </c>
-      <c r="E403">
-        <v>0.98</v>
-      </c>
-      <c r="F403">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G403" t="b">
-        <v>1</v>
-      </c>
-      <c r="H403">
-        <v>501</v>
-      </c>
       <c r="J403" s="1" t="s">
         <v>166</v>
       </c>
@@ -25846,7 +25798,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K421">
         <v>0.2452830188679245</v>
@@ -25924,7 +25876,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K424">
         <v>0.2413793103448276</v>
@@ -26002,7 +25954,7 @@
     </row>
     <row r="427" spans="10:17">
       <c r="J427" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K427">
         <v>0.2391304347826087</v>
@@ -26106,7 +26058,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K431">
         <v>0.2380952380952381</v>
@@ -26314,7 +26266,7 @@
     </row>
     <row r="439" spans="10:17">
       <c r="J439" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K439">
         <v>0.2333333333333333</v>
@@ -26522,7 +26474,7 @@
     </row>
     <row r="447" spans="10:17">
       <c r="J447" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K447">
         <v>0.2307692307692308</v>
@@ -26678,7 +26630,7 @@
     </row>
     <row r="453" spans="10:17">
       <c r="J453" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K453">
         <v>0.2258064516129032</v>
@@ -27094,7 +27046,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K469">
         <v>0.2222222222222222</v>
@@ -27302,7 +27254,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K477">
         <v>0.2222222222222222</v>
@@ -27614,7 +27566,7 @@
     </row>
     <row r="489" spans="10:17">
       <c r="J489" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K489">
         <v>0.2148148148148148</v>
@@ -27640,7 +27592,7 @@
     </row>
     <row r="490" spans="10:17">
       <c r="J490" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K490">
         <v>0.2142857142857143</v>
@@ -27848,7 +27800,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K498">
         <v>0.2121212121212121</v>
@@ -27952,7 +27904,7 @@
     </row>
     <row r="502" spans="10:17">
       <c r="J502" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K502">
         <v>0.2105263157894737</v>
@@ -28030,7 +27982,7 @@
     </row>
     <row r="505" spans="10:17">
       <c r="J505" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K505">
         <v>0.2088607594936709</v>
@@ -28056,7 +28008,7 @@
     </row>
     <row r="506" spans="10:17">
       <c r="J506" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K506">
         <v>0.2083333333333333</v>
@@ -28186,7 +28138,7 @@
     </row>
     <row r="511" spans="10:17">
       <c r="J511" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K511">
         <v>0.2077922077922078</v>
@@ -28290,7 +28242,7 @@
     </row>
     <row r="515" spans="10:17">
       <c r="J515" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K515">
         <v>0.2038216560509554</v>
@@ -28316,7 +28268,7 @@
     </row>
     <row r="516" spans="10:17">
       <c r="J516" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K516">
         <v>0.2037037037037037</v>
@@ -28680,7 +28632,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K530">
         <v>0.2</v>
@@ -28758,7 +28710,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K533">
         <v>0.2</v>
@@ -29304,7 +29256,7 @@
     </row>
     <row r="554" spans="10:17">
       <c r="J554" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K554">
         <v>0.1937984496124031</v>
@@ -29512,7 +29464,7 @@
     </row>
     <row r="562" spans="10:17">
       <c r="J562" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K562">
         <v>0.1875</v>
@@ -29668,7 +29620,7 @@
     </row>
     <row r="568" spans="10:17">
       <c r="J568" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K568">
         <v>0.1830985915492958</v>
@@ -29720,7 +29672,7 @@
     </row>
     <row r="570" spans="10:17">
       <c r="J570" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K570">
         <v>0.1818181818181818</v>
@@ -29798,7 +29750,7 @@
     </row>
     <row r="573" spans="10:17">
       <c r="J573" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K573">
         <v>0.1818181818181818</v>
@@ -30318,7 +30270,7 @@
     </row>
     <row r="593" spans="10:17">
       <c r="J593" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K593">
         <v>0.1794871794871795</v>
@@ -30344,7 +30296,7 @@
     </row>
     <row r="594" spans="10:17">
       <c r="J594" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K594">
         <v>0.1785714285714286</v>
@@ -30370,7 +30322,7 @@
     </row>
     <row r="595" spans="10:17">
       <c r="J595" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K595">
         <v>0.1779661016949153</v>
@@ -30396,7 +30348,7 @@
     </row>
     <row r="596" spans="10:17">
       <c r="J596" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K596">
         <v>0.1774193548387097</v>
@@ -30682,7 +30634,7 @@
     </row>
     <row r="607" spans="10:17">
       <c r="J607" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K607">
         <v>0.1739130434782609</v>
@@ -30812,7 +30764,7 @@
     </row>
     <row r="612" spans="10:17">
       <c r="J612" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K612">
         <v>0.1702127659574468</v>
@@ -30838,7 +30790,7 @@
     </row>
     <row r="613" spans="10:17">
       <c r="J613" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K613">
         <v>0.17</v>
@@ -30890,7 +30842,7 @@
     </row>
     <row r="615" spans="10:17">
       <c r="J615" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K615">
         <v>0.1690821256038647</v>
@@ -31228,7 +31180,7 @@
     </row>
     <row r="628" spans="10:17">
       <c r="J628" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K628">
         <v>0.1666666666666667</v>
@@ -31384,7 +31336,7 @@
     </row>
     <row r="634" spans="10:17">
       <c r="J634" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K634">
         <v>0.1666666666666667</v>
@@ -31644,7 +31596,7 @@
     </row>
     <row r="644" spans="10:17">
       <c r="J644" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K644">
         <v>0.1666666666666667</v>
@@ -33178,7 +33130,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K703">
         <v>0.1636363636363636</v>
@@ -33620,7 +33572,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K720">
         <v>0.1538461538461539</v>
@@ -33958,7 +33910,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K733">
         <v>0.1538461538461539</v>
@@ -34062,7 +34014,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K737">
         <v>0.1515151515151515</v>
@@ -34166,7 +34118,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K741">
         <v>0.1495327102803738</v>
@@ -34192,7 +34144,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K742">
         <v>0.1482720178372352</v>
@@ -34296,7 +34248,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K746">
         <v>0.1463414634146341</v>
@@ -34322,7 +34274,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K747">
         <v>0.1451612903225807</v>
@@ -36116,7 +36068,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K816">
         <v>0.1388888888888889</v>
@@ -36142,7 +36094,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K817">
         <v>0.1379310344827586</v>
@@ -36194,7 +36146,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K819">
         <v>0.1373873873873874</v>
@@ -36246,7 +36198,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K821">
         <v>0.1363636363636364</v>
@@ -36324,7 +36276,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K824">
         <v>0.1333333333333333</v>
@@ -36532,7 +36484,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K832">
         <v>0.1323529411764706</v>
@@ -36558,7 +36510,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K833">
         <v>0.1323076923076923</v>
@@ -36610,7 +36562,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K835">
         <v>0.1304347826086956</v>
@@ -36636,7 +36588,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K836">
         <v>0.1304347826086956</v>
@@ -36844,7 +36796,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K844">
         <v>0.1282051282051282</v>
@@ -36870,7 +36822,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K845">
         <v>0.1276595744680851</v>
@@ -36922,7 +36874,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K847">
         <v>0.1265822784810127</v>
@@ -38664,7 +38616,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K914">
         <v>0.1212121212121212</v>
@@ -38768,7 +38720,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K918">
         <v>0.1205559146735617</v>
@@ -38898,7 +38850,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K923">
         <v>0.1186440677966102</v>
@@ -38924,7 +38876,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K924">
         <v>0.1176470588235294</v>
@@ -39158,7 +39110,7 @@
     </row>
     <row r="933" spans="10:17">
       <c r="J933" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K933">
         <v>0.1148409893992933</v>
@@ -39184,7 +39136,7 @@
     </row>
     <row r="934" spans="10:17">
       <c r="J934" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K934">
         <v>0.1147540983606557</v>
@@ -39262,7 +39214,7 @@
     </row>
     <row r="937" spans="10:17">
       <c r="J937" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K937">
         <v>0.1136363636363636</v>
@@ -39314,7 +39266,7 @@
     </row>
     <row r="939" spans="10:17">
       <c r="J939" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K939">
         <v>0.1134020618556701</v>
@@ -39340,7 +39292,7 @@
     </row>
     <row r="940" spans="10:17">
       <c r="J940" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K940">
         <v>0.1125235404896422</v>
@@ -39470,7 +39422,7 @@
     </row>
     <row r="945" spans="10:17">
       <c r="J945" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K945">
         <v>0.1111111111111111</v>
@@ -40094,7 +40046,7 @@
     </row>
     <row r="969" spans="10:17">
       <c r="J969" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K969">
         <v>0.1111111111111111</v>
@@ -40848,7 +40800,7 @@
     </row>
     <row r="998" spans="10:17">
       <c r="J998" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K998">
         <v>0.1102484472049689</v>
@@ -40926,7 +40878,7 @@
     </row>
     <row r="1001" spans="10:17">
       <c r="J1001" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K1001">
         <v>0.1075581395348837</v>
@@ -40978,7 +40930,7 @@
     </row>
     <row r="1003" spans="10:17">
       <c r="J1003" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K1003">
         <v>0.1071428571428571</v>
@@ -41004,7 +40956,7 @@
     </row>
     <row r="1004" spans="10:17">
       <c r="J1004" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K1004">
         <v>0.1071428571428571</v>
@@ -41082,7 +41034,7 @@
     </row>
     <row r="1007" spans="10:17">
       <c r="J1007" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K1007">
         <v>0.1071428571428571</v>
@@ -41420,7 +41372,7 @@
     </row>
     <row r="1020" spans="10:17">
       <c r="J1020" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K1020">
         <v>0.1052631578947368</v>
@@ -41732,7 +41684,7 @@
     </row>
     <row r="1032" spans="10:17">
       <c r="J1032" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K1032">
         <v>0.1015037593984962</v>
@@ -42044,7 +41996,7 @@
     </row>
     <row r="1044" spans="10:17">
       <c r="J1044" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K1044">
         <v>0.1</v>
@@ -42616,7 +42568,7 @@
     </row>
     <row r="1066" spans="10:17">
       <c r="J1066" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K1066">
         <v>0.09815950920245399</v>
@@ -42746,7 +42698,7 @@
     </row>
     <row r="1071" spans="10:17">
       <c r="J1071" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K1071">
         <v>0.09523809523809523</v>
@@ -42876,7 +42828,7 @@
     </row>
     <row r="1076" spans="10:17">
       <c r="J1076" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K1076">
         <v>0.09523809523809523</v>
@@ -42980,7 +42932,7 @@
     </row>
     <row r="1080" spans="10:17">
       <c r="J1080" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K1080">
         <v>0.09385863267670916</v>
@@ -43032,7 +42984,7 @@
     </row>
     <row r="1082" spans="10:17">
       <c r="J1082" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K1082">
         <v>0.09278350515463918</v>
@@ -43136,7 +43088,7 @@
     </row>
     <row r="1086" spans="10:17">
       <c r="J1086" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K1086">
         <v>0.09090909090909091</v>
@@ -43292,7 +43244,7 @@
     </row>
     <row r="1092" spans="10:17">
       <c r="J1092" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K1092">
         <v>0.09090909090909091</v>
@@ -43552,7 +43504,7 @@
     </row>
     <row r="1102" spans="10:17">
       <c r="J1102" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K1102">
         <v>0.09090909090909091</v>
@@ -44306,7 +44258,7 @@
     </row>
     <row r="1131" spans="10:17">
       <c r="J1131" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K1131">
         <v>0.08928571428571429</v>
@@ -44410,7 +44362,7 @@
     </row>
     <row r="1135" spans="10:17">
       <c r="J1135" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K1135">
         <v>0.08823529411764706</v>
@@ -44670,7 +44622,7 @@
     </row>
     <row r="1145" spans="10:17">
       <c r="J1145" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K1145">
         <v>0.08695652173913043</v>
@@ -44800,7 +44752,7 @@
     </row>
     <row r="1150" spans="10:17">
       <c r="J1150" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K1150">
         <v>0.08333333333333333</v>
@@ -44930,7 +44882,7 @@
     </row>
     <row r="1155" spans="10:17">
       <c r="J1155" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K1155">
         <v>0.08333333333333333</v>
@@ -44956,7 +44908,7 @@
     </row>
     <row r="1156" spans="10:17">
       <c r="J1156" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K1156">
         <v>0.08333333333333333</v>
@@ -45476,7 +45428,7 @@
     </row>
     <row r="1176" spans="10:17">
       <c r="J1176" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K1176">
         <v>0.08333333333333333</v>
@@ -45788,7 +45740,7 @@
     </row>
     <row r="1188" spans="10:17">
       <c r="J1188" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K1188">
         <v>0.08163265306122448</v>
@@ -45996,7 +45948,7 @@
     </row>
     <row r="1196" spans="10:17">
       <c r="J1196" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K1196">
         <v>0.08</v>
@@ -46100,7 +46052,7 @@
     </row>
     <row r="1200" spans="10:17">
       <c r="J1200" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K1200">
         <v>0.07705627705627706</v>
@@ -46256,7 +46208,7 @@
     </row>
     <row r="1206" spans="10:17">
       <c r="J1206" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K1206">
         <v>0.07692307692307693</v>
@@ -46386,7 +46338,7 @@
     </row>
     <row r="1211" spans="10:17">
       <c r="J1211" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K1211">
         <v>0.07692307692307693</v>
@@ -46568,7 +46520,7 @@
     </row>
     <row r="1218" spans="10:17">
       <c r="J1218" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K1218">
         <v>0.07692307692307693</v>
@@ -46776,7 +46728,7 @@
     </row>
     <row r="1226" spans="10:17">
       <c r="J1226" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K1226">
         <v>0.075</v>
@@ -46802,7 +46754,7 @@
     </row>
     <row r="1227" spans="10:17">
       <c r="J1227" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K1227">
         <v>0.07427138827953619</v>
@@ -46828,7 +46780,7 @@
     </row>
     <row r="1228" spans="10:17">
       <c r="J1228" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K1228">
         <v>0.07407407407407407</v>
@@ -46854,7 +46806,7 @@
     </row>
     <row r="1229" spans="10:17">
       <c r="J1229" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K1229">
         <v>0.07407407407407407</v>
@@ -47010,7 +46962,7 @@
     </row>
     <row r="1235" spans="10:17">
       <c r="J1235" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K1235">
         <v>0.07317073170731707</v>
@@ -47036,7 +46988,7 @@
     </row>
     <row r="1236" spans="10:17">
       <c r="J1236" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K1236">
         <v>0.07272727272727272</v>
@@ -47296,7 +47248,7 @@
     </row>
     <row r="1246" spans="10:17">
       <c r="J1246" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K1246">
         <v>0.07142857142857142</v>
@@ -47634,7 +47586,7 @@
     </row>
     <row r="1259" spans="10:17">
       <c r="J1259" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K1259">
         <v>0.06896551724137931</v>
@@ -47686,7 +47638,7 @@
     </row>
     <row r="1261" spans="10:17">
       <c r="J1261" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K1261">
         <v>0.06896551724137931</v>
@@ -47738,7 +47690,7 @@
     </row>
     <row r="1263" spans="10:17">
       <c r="J1263" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K1263">
         <v>0.06818181818181818</v>
@@ -47764,7 +47716,7 @@
     </row>
     <row r="1264" spans="10:17">
       <c r="J1264" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K1264">
         <v>0.06818181818181818</v>
@@ -47842,7 +47794,7 @@
     </row>
     <row r="1267" spans="10:17">
       <c r="J1267" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K1267">
         <v>0.06785714285714285</v>
@@ -48388,7 +48340,7 @@
     </row>
     <row r="1288" spans="10:17">
       <c r="J1288" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K1288">
         <v>0.06617647058823529</v>
@@ -48414,7 +48366,7 @@
     </row>
     <row r="1289" spans="10:17">
       <c r="J1289" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K1289">
         <v>0.06593406593406594</v>
@@ -48570,7 +48522,7 @@
     </row>
     <row r="1295" spans="10:17">
       <c r="J1295" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K1295">
         <v>0.06382978723404255</v>
@@ -48596,7 +48548,7 @@
     </row>
     <row r="1296" spans="10:17">
       <c r="J1296" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K1296">
         <v>0.06315789473684211</v>
@@ -48778,7 +48730,7 @@
     </row>
     <row r="1303" spans="10:17">
       <c r="J1303" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K1303">
         <v>0.0625</v>
@@ -49116,7 +49068,7 @@
     </row>
     <row r="1316" spans="10:17">
       <c r="J1316" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K1316">
         <v>0.06024096385542169</v>
@@ -49220,7 +49172,7 @@
     </row>
     <row r="1320" spans="10:17">
       <c r="J1320" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K1320">
         <v>0.05882352941176471</v>
@@ -49584,7 +49536,7 @@
     </row>
     <row r="1334" spans="10:17">
       <c r="J1334" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K1334">
         <v>0.05882352941176471</v>
@@ -49714,7 +49666,7 @@
     </row>
     <row r="1339" spans="10:17">
       <c r="J1339" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K1339">
         <v>0.05714285714285714</v>
@@ -49896,7 +49848,7 @@
     </row>
     <row r="1346" spans="10:17">
       <c r="J1346" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K1346">
         <v>0.05555555555555555</v>
@@ -49948,7 +49900,7 @@
     </row>
     <row r="1348" spans="10:17">
       <c r="J1348" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K1348">
         <v>0.05555555555555555</v>
@@ -50130,7 +50082,7 @@
     </row>
     <row r="1355" spans="10:17">
       <c r="J1355" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K1355">
         <v>0.05307262569832402</v>
@@ -50260,7 +50212,7 @@
     </row>
     <row r="1360" spans="10:17">
       <c r="J1360" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K1360">
         <v>0.05263157894736842</v>
@@ -50520,7 +50472,7 @@
     </row>
     <row r="1370" spans="10:17">
       <c r="J1370" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K1370">
         <v>0.05016722408026756</v>
@@ -50754,7 +50706,7 @@
     </row>
     <row r="1379" spans="10:17">
       <c r="J1379" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K1379">
         <v>0.04878048780487805</v>
@@ -50806,7 +50758,7 @@
     </row>
     <row r="1381" spans="10:17">
       <c r="J1381" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K1381">
         <v>0.04761904761904762</v>
@@ -51092,7 +51044,7 @@
     </row>
     <row r="1392" spans="10:17">
       <c r="J1392" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K1392">
         <v>0.04615384615384616</v>
@@ -51196,7 +51148,7 @@
     </row>
     <row r="1396" spans="10:17">
       <c r="J1396" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K1396">
         <v>0.04444444444444445</v>
@@ -51716,7 +51668,7 @@
     </row>
     <row r="1416" spans="10:17">
       <c r="J1416" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K1416">
         <v>0.04</v>
@@ -51846,7 +51798,7 @@
     </row>
     <row r="1421" spans="10:17">
       <c r="J1421" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K1421">
         <v>0.03846153846153846</v>
@@ -51950,7 +51902,7 @@
     </row>
     <row r="1425" spans="10:17">
       <c r="J1425" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K1425">
         <v>0.03773584905660377</v>
@@ -51976,7 +51928,7 @@
     </row>
     <row r="1426" spans="10:17">
       <c r="J1426" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K1426">
         <v>0.0375</v>
@@ -52028,7 +51980,7 @@
     </row>
     <row r="1428" spans="10:17">
       <c r="J1428" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K1428">
         <v>0.03703703703703703</v>
@@ -52392,7 +52344,7 @@
     </row>
     <row r="1442" spans="10:17">
       <c r="J1442" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K1442">
         <v>0.0303030303030303</v>
@@ -52444,7 +52396,7 @@
     </row>
     <row r="1444" spans="10:17">
       <c r="J1444" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K1444">
         <v>0.03023758099352052</v>
@@ -52470,7 +52422,7 @@
     </row>
     <row r="1445" spans="10:17">
       <c r="J1445" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K1445">
         <v>0.03</v>
@@ -52496,7 +52448,7 @@
     </row>
     <row r="1446" spans="10:17">
       <c r="J1446" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K1446">
         <v>0.02985074626865672</v>
@@ -52834,7 +52786,7 @@
     </row>
     <row r="1459" spans="10:17">
       <c r="J1459" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K1459">
         <v>0.02564102564102564</v>
@@ -53198,7 +53150,7 @@
     </row>
     <row r="1473" spans="10:17">
       <c r="J1473" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1473">
         <v>0.02127659574468085</v>
@@ -53276,7 +53228,7 @@
     </row>
     <row r="1476" spans="10:17">
       <c r="J1476" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K1476">
         <v>0.0196078431372549</v>
@@ -53562,7 +53514,7 @@
     </row>
     <row r="1487" spans="10:17">
       <c r="J1487" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K1487">
         <v>0.01063829787234043</v>
@@ -53614,7 +53566,7 @@
     </row>
     <row r="1489" spans="10:17">
       <c r="J1489" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K1489">
         <v>0.01038062283737024</v>
@@ -53640,7 +53592,7 @@
     </row>
     <row r="1490" spans="10:17">
       <c r="J1490" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K1490">
         <v>0.0101010101010101</v>
